--- a/datasets/01_coding_06_mean_01_sub.xlsx
+++ b/datasets/01_coding_06_mean_01_sub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HYEM'S\GraduatedSchool\PROJECTS\MyProjects\GraduationThesis\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1052A5AA-9D4B-4389-82BB-5DE72FE36C7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121489F3-FC19-45CA-86D7-82244237435A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="72" windowWidth="18072" windowHeight="12528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -311,9 +311,6 @@
   </si>
   <si>
     <t>010-9314-7377</t>
-  </si>
-  <si>
-    <t>010</t>
   </si>
   <si>
     <t>25</t>
@@ -1159,34 +1156,37 @@
     <t>010-2379-4552</t>
   </si>
   <si>
-    <t>"010-3858-431</t>
+    <t/>
   </si>
   <si>
-    <t>"010-3214-670</t>
+    <t>010-5667-7403</t>
   </si>
   <si>
-    <t>"010-5281-032</t>
+    <t>010-3858-4315</t>
   </si>
   <si>
-    <t>"010-2990-282</t>
+    <t>010-3214-6707</t>
   </si>
   <si>
-    <t>"010-6298-603</t>
+    <t>010-5281-0322</t>
   </si>
   <si>
-    <t>"010-6705-601</t>
+    <t>010-2990-2822</t>
   </si>
   <si>
-    <t>"010-2267-877</t>
+    <t>010-6298-6037</t>
   </si>
   <si>
-    <t>"010-2973-934</t>
+    <t>010-6705-6016</t>
   </si>
   <si>
-    <t>"010-8209-600</t>
+    <t>010-2267-8774</t>
   </si>
   <si>
-    <t/>
+    <t>010-2973-9349</t>
+  </si>
+  <si>
+    <t>010-8209-6009</t>
   </si>
 </sst>
 </file>
@@ -1194,8 +1194,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="183" formatCode="0.00000000"/>
-    <numFmt numFmtId="184" formatCode="0.000000000"/>
+    <numFmt numFmtId="176" formatCode="0.00000000"/>
+    <numFmt numFmtId="177" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1233,11 +1233,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1578,11 +1581,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT319"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AU7" sqref="AU7"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="A310" sqref="A310:A319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="36.69921875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -5785,8 +5791,8 @@
       </c>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>97</v>
+      <c r="A31" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="B31" s="3">
         <v>5667</v>
@@ -5870,10 +5876,10 @@
         <v>25</v>
       </c>
       <c r="AC31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE31" t="s">
         <v>52</v>
@@ -5921,12 +5927,12 @@
         <v>48</v>
       </c>
       <c r="AT31" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B32" s="3">
         <v>5</v>
@@ -6066,7 +6072,7 @@
     </row>
     <row r="33" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B33" s="3">
         <v>3</v>
@@ -6206,7 +6212,7 @@
     </row>
     <row r="34" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B34" s="3">
         <v>3.6666666669999999</v>
@@ -6346,7 +6352,7 @@
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B35" s="3">
         <v>5</v>
@@ -6486,7 +6492,7 @@
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B36" s="3">
         <v>3</v>
@@ -6626,7 +6632,7 @@
     </row>
     <row r="37" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B37" s="3">
         <v>4.3333333329999997</v>
@@ -6766,7 +6772,7 @@
     </row>
     <row r="38" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B38" s="3">
         <v>2.3333333330000001</v>
@@ -6906,7 +6912,7 @@
     </row>
     <row r="39" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B39" s="3">
         <v>5</v>
@@ -7046,7 +7052,7 @@
     </row>
     <row r="40" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B40" s="3">
         <v>4</v>
@@ -7186,7 +7192,7 @@
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B41" s="3">
         <v>3.6666666669999999</v>
@@ -7326,7 +7332,7 @@
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B42" s="3">
         <v>4</v>
@@ -7466,7 +7472,7 @@
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B43" s="3">
         <v>3.3333333330000001</v>
@@ -7606,7 +7612,7 @@
     </row>
     <row r="44" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B44" s="3">
         <v>4.3333333329999997</v>
@@ -7746,7 +7752,7 @@
     </row>
     <row r="45" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B45" s="3">
         <v>4.6666666670000003</v>
@@ -7886,7 +7892,7 @@
     </row>
     <row r="46" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B46" s="3">
         <v>5</v>
@@ -8026,7 +8032,7 @@
     </row>
     <row r="47" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B47" s="3">
         <v>4.3333333329999997</v>
@@ -8166,7 +8172,7 @@
     </row>
     <row r="48" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B48" s="3">
         <v>4</v>
@@ -8306,7 +8312,7 @@
     </row>
     <row r="49" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B49" s="3">
         <v>3.6666666669999999</v>
@@ -8446,7 +8452,7 @@
     </row>
     <row r="50" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B50" s="3">
         <v>4</v>
@@ -8586,7 +8592,7 @@
     </row>
     <row r="51" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B51" s="3">
         <v>4</v>
@@ -8726,7 +8732,7 @@
     </row>
     <row r="52" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B52" s="3">
         <v>5</v>
@@ -8866,7 +8872,7 @@
     </row>
     <row r="53" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B53" s="3">
         <v>5</v>
@@ -9006,7 +9012,7 @@
     </row>
     <row r="54" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B54" s="3">
         <v>4</v>
@@ -9146,7 +9152,7 @@
     </row>
     <row r="55" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B55" s="3">
         <v>4</v>
@@ -9286,7 +9292,7 @@
     </row>
     <row r="56" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B56" s="3">
         <v>3.6666666669999999</v>
@@ -9426,7 +9432,7 @@
     </row>
     <row r="57" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B57" s="3">
         <v>3.6666666669999999</v>
@@ -9566,7 +9572,7 @@
     </row>
     <row r="58" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B58" s="3">
         <v>4.3333333329999997</v>
@@ -9706,7 +9712,7 @@
     </row>
     <row r="59" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B59" s="3">
         <v>4</v>
@@ -9846,7 +9852,7 @@
     </row>
     <row r="60" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B60" s="3">
         <v>4.3333333329999997</v>
@@ -9986,7 +9992,7 @@
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B61" s="3">
         <v>4</v>
@@ -10126,7 +10132,7 @@
     </row>
     <row r="62" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B62" s="3">
         <v>4</v>
@@ -10266,7 +10272,7 @@
     </row>
     <row r="63" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B63" s="3">
         <v>4</v>
@@ -10406,7 +10412,7 @@
     </row>
     <row r="64" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B64" s="3">
         <v>2.6666666669999999</v>
@@ -10546,7 +10552,7 @@
     </row>
     <row r="65" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B65" s="3">
         <v>4.6666666670000003</v>
@@ -10686,7 +10692,7 @@
     </row>
     <row r="66" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B66" s="3">
         <v>4</v>
@@ -10826,7 +10832,7 @@
     </row>
     <row r="67" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B67" s="3">
         <v>4</v>
@@ -10966,7 +10972,7 @@
     </row>
     <row r="68" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B68" s="3">
         <v>4.3333333329999997</v>
@@ -11106,7 +11112,7 @@
     </row>
     <row r="69" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B69" s="3">
         <v>4</v>
@@ -11246,7 +11252,7 @@
     </row>
     <row r="70" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B70" s="3">
         <v>3.3333333330000001</v>
@@ -11386,7 +11392,7 @@
     </row>
     <row r="71" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B71" s="3">
         <v>4</v>
@@ -11526,7 +11532,7 @@
     </row>
     <row r="72" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B72" s="3">
         <v>3</v>
@@ -11666,7 +11672,7 @@
     </row>
     <row r="73" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B73" s="3">
         <v>4</v>
@@ -11806,7 +11812,7 @@
     </row>
     <row r="74" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B74" s="3">
         <v>3</v>
@@ -11946,7 +11952,7 @@
     </row>
     <row r="75" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B75" s="3">
         <v>3.6666666669999999</v>
@@ -12086,7 +12092,7 @@
     </row>
     <row r="76" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B76" s="3">
         <v>4.3333333329999997</v>
@@ -12226,7 +12232,7 @@
     </row>
     <row r="77" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B77" s="3">
         <v>4</v>
@@ -12366,7 +12372,7 @@
     </row>
     <row r="78" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B78" s="3">
         <v>4</v>
@@ -12506,7 +12512,7 @@
     </row>
     <row r="79" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B79" s="3">
         <v>3.6666666669999999</v>
@@ -12646,7 +12652,7 @@
     </row>
     <row r="80" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B80" s="3">
         <v>3</v>
@@ -12786,7 +12792,7 @@
     </row>
     <row r="81" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B81" s="3">
         <v>3.6666666669999999</v>
@@ -12926,7 +12932,7 @@
     </row>
     <row r="82" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B82" s="3">
         <v>3.6666666669999999</v>
@@ -13066,7 +13072,7 @@
     </row>
     <row r="83" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B83" s="3">
         <v>4</v>
@@ -13206,7 +13212,7 @@
     </row>
     <row r="84" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B84" s="3">
         <v>4.3333333329999997</v>
@@ -13346,7 +13352,7 @@
     </row>
     <row r="85" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B85" s="3">
         <v>2.6666666669999999</v>
@@ -13486,7 +13492,7 @@
     </row>
     <row r="86" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B86" s="3">
         <v>4.6666666670000003</v>
@@ -13626,7 +13632,7 @@
     </row>
     <row r="87" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B87" s="3">
         <v>4</v>
@@ -13766,7 +13772,7 @@
     </row>
     <row r="88" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B88" s="3">
         <v>4.3333333329999997</v>
@@ -13906,7 +13912,7 @@
     </row>
     <row r="89" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B89" s="3">
         <v>4.3333333329999997</v>
@@ -14046,7 +14052,7 @@
     </row>
     <row r="90" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B90" s="3">
         <v>5</v>
@@ -14186,7 +14192,7 @@
     </row>
     <row r="91" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B91" s="3">
         <v>2</v>
@@ -14326,7 +14332,7 @@
     </row>
     <row r="92" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B92" s="3">
         <v>4.6666666670000003</v>
@@ -14466,7 +14472,7 @@
     </row>
     <row r="93" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B93" s="3">
         <v>4</v>
@@ -14606,7 +14612,7 @@
     </row>
     <row r="94" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B94" s="3">
         <v>5</v>
@@ -14746,7 +14752,7 @@
     </row>
     <row r="95" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B95" s="3">
         <v>4</v>
@@ -14886,7 +14892,7 @@
     </row>
     <row r="96" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B96" s="3">
         <v>4.3333333329999997</v>
@@ -15026,7 +15032,7 @@
     </row>
     <row r="97" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B97" s="3">
         <v>3.6666666669999999</v>
@@ -15166,7 +15172,7 @@
     </row>
     <row r="98" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B98" s="3">
         <v>4.3333333329999997</v>
@@ -15306,7 +15312,7 @@
     </row>
     <row r="99" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B99" s="3">
         <v>4.3333333329999997</v>
@@ -15446,7 +15452,7 @@
     </row>
     <row r="100" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B100" s="3">
         <v>4.3333333329999997</v>
@@ -15586,7 +15592,7 @@
     </row>
     <row r="101" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B101" s="3">
         <v>3.3333333330000001</v>
@@ -15726,7 +15732,7 @@
     </row>
     <row r="102" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B102" s="3">
         <v>2.6666666669999999</v>
@@ -15866,7 +15872,7 @@
     </row>
     <row r="103" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B103" s="3">
         <v>5</v>
@@ -16006,7 +16012,7 @@
     </row>
     <row r="104" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B104" s="3">
         <v>5</v>
@@ -16146,7 +16152,7 @@
     </row>
     <row r="105" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B105" s="3">
         <v>5</v>
@@ -16286,7 +16292,7 @@
     </row>
     <row r="106" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B106" s="3">
         <v>4</v>
@@ -16426,7 +16432,7 @@
     </row>
     <row r="107" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B107" s="3">
         <v>4.6666666670000003</v>
@@ -16566,7 +16572,7 @@
     </row>
     <row r="108" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B108" s="3">
         <v>3</v>
@@ -16706,7 +16712,7 @@
     </row>
     <row r="109" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B109" s="3">
         <v>4.3333333329999997</v>
@@ -16846,7 +16852,7 @@
     </row>
     <row r="110" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B110" s="3">
         <v>4</v>
@@ -16986,7 +16992,7 @@
     </row>
     <row r="111" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B111" s="3">
         <v>4</v>
@@ -17126,7 +17132,7 @@
     </row>
     <row r="112" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B112" s="3">
         <v>3.6666666669999999</v>
@@ -17266,7 +17272,7 @@
     </row>
     <row r="113" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B113" s="3">
         <v>2.3333333330000001</v>
@@ -17401,12 +17407,12 @@
         <v>59</v>
       </c>
       <c r="AT113" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="114" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B114" s="3">
         <v>5</v>
@@ -17546,7 +17552,7 @@
     </row>
     <row r="115" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B115" s="3">
         <v>3.6666666669999999</v>
@@ -17686,7 +17692,7 @@
     </row>
     <row r="116" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B116" s="3">
         <v>3</v>
@@ -17826,7 +17832,7 @@
     </row>
     <row r="117" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B117" s="3">
         <v>4.3333333329999997</v>
@@ -17966,7 +17972,7 @@
     </row>
     <row r="118" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B118" s="3">
         <v>4</v>
@@ -18106,7 +18112,7 @@
     </row>
     <row r="119" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B119" s="3">
         <v>3.6666666669999999</v>
@@ -18246,7 +18252,7 @@
     </row>
     <row r="120" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B120" s="3">
         <v>3.3333333330000001</v>
@@ -18386,7 +18392,7 @@
     </row>
     <row r="121" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B121" s="3">
         <v>5</v>
@@ -18526,7 +18532,7 @@
     </row>
     <row r="122" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B122" s="3">
         <v>3.6666666669999999</v>
@@ -18666,7 +18672,7 @@
     </row>
     <row r="123" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B123" s="3">
         <v>5</v>
@@ -18806,7 +18812,7 @@
     </row>
     <row r="124" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B124" s="3">
         <v>4.6666666670000003</v>
@@ -18946,7 +18952,7 @@
     </row>
     <row r="125" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B125" s="3">
         <v>4.3333333329999997</v>
@@ -19086,7 +19092,7 @@
     </row>
     <row r="126" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B126" s="3">
         <v>4.6666666670000003</v>
@@ -19226,7 +19232,7 @@
     </row>
     <row r="127" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B127" s="3">
         <v>5</v>
@@ -19366,7 +19372,7 @@
     </row>
     <row r="128" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B128" s="3">
         <v>4.6666666670000003</v>
@@ -19506,7 +19512,7 @@
     </row>
     <row r="129" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B129" s="3">
         <v>4</v>
@@ -19646,7 +19652,7 @@
     </row>
     <row r="130" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B130" s="3">
         <v>4</v>
@@ -19786,7 +19792,7 @@
     </row>
     <row r="131" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B131" s="3">
         <v>4.6666666670000003</v>
@@ -19926,7 +19932,7 @@
     </row>
     <row r="132" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B132" s="3">
         <v>4.3333333329999997</v>
@@ -20066,7 +20072,7 @@
     </row>
     <row r="133" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B133" s="3">
         <v>4.3333333329999997</v>
@@ -20198,7 +20204,7 @@
         <v>87</v>
       </c>
       <c r="AS133" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT133" t="s">
         <v>61</v>
@@ -20206,7 +20212,7 @@
     </row>
     <row r="134" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B134" s="3">
         <v>5</v>
@@ -20346,7 +20352,7 @@
     </row>
     <row r="135" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B135" s="3">
         <v>4.6666666670000003</v>
@@ -20486,7 +20492,7 @@
     </row>
     <row r="136" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B136" s="3">
         <v>4</v>
@@ -20626,7 +20632,7 @@
     </row>
     <row r="137" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B137" s="3">
         <v>4.3333333329999997</v>
@@ -20766,7 +20772,7 @@
     </row>
     <row r="138" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B138" s="3">
         <v>4.3333333329999997</v>
@@ -20906,7 +20912,7 @@
     </row>
     <row r="139" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B139" s="3">
         <v>4.6666666670000003</v>
@@ -21046,7 +21052,7 @@
     </row>
     <row r="140" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B140" s="3">
         <v>3.6666666669999999</v>
@@ -21186,7 +21192,7 @@
     </row>
     <row r="141" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B141" s="3">
         <v>4</v>
@@ -21326,7 +21332,7 @@
     </row>
     <row r="142" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B142" s="3">
         <v>5</v>
@@ -21466,7 +21472,7 @@
     </row>
     <row r="143" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B143" s="3">
         <v>5</v>
@@ -21606,7 +21612,7 @@
     </row>
     <row r="144" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B144" s="3">
         <v>4</v>
@@ -21746,7 +21752,7 @@
     </row>
     <row r="145" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B145" s="3">
         <v>4.3333333329999997</v>
@@ -21886,7 +21892,7 @@
     </row>
     <row r="146" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B146" s="3">
         <v>4.6666666670000003</v>
@@ -22026,7 +22032,7 @@
     </row>
     <row r="147" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B147" s="3">
         <v>3</v>
@@ -22166,7 +22172,7 @@
     </row>
     <row r="148" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B148" s="3">
         <v>5</v>
@@ -22306,7 +22312,7 @@
     </row>
     <row r="149" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B149" s="3">
         <v>5</v>
@@ -22446,7 +22452,7 @@
     </row>
     <row r="150" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B150" s="3">
         <v>4</v>
@@ -22586,7 +22592,7 @@
     </row>
     <row r="151" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B151" s="3">
         <v>5</v>
@@ -22726,7 +22732,7 @@
     </row>
     <row r="152" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B152" s="3">
         <v>4</v>
@@ -22866,7 +22872,7 @@
     </row>
     <row r="153" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B153" s="3">
         <v>5</v>
@@ -23006,7 +23012,7 @@
     </row>
     <row r="154" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B154" s="3">
         <v>3.3333333330000001</v>
@@ -23146,7 +23152,7 @@
     </row>
     <row r="155" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B155" s="3">
         <v>4.3333333329999997</v>
@@ -23286,7 +23292,7 @@
     </row>
     <row r="156" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B156" s="3">
         <v>3.6666666669999999</v>
@@ -23426,7 +23432,7 @@
     </row>
     <row r="157" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B157" s="3">
         <v>4</v>
@@ -23566,7 +23572,7 @@
     </row>
     <row r="158" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B158" s="3">
         <v>4</v>
@@ -23706,7 +23712,7 @@
     </row>
     <row r="159" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B159" s="3">
         <v>4.3333333329999997</v>
@@ -23846,7 +23852,7 @@
     </row>
     <row r="160" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B160" s="3">
         <v>4</v>
@@ -23986,7 +23992,7 @@
     </row>
     <row r="161" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B161" s="3">
         <v>4</v>
@@ -24126,7 +24132,7 @@
     </row>
     <row r="162" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B162" s="3">
         <v>4.6666666670000003</v>
@@ -24266,7 +24272,7 @@
     </row>
     <row r="163" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B163" s="3">
         <v>4</v>
@@ -24406,7 +24412,7 @@
     </row>
     <row r="164" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B164" s="3">
         <v>4.6666666670000003</v>
@@ -24546,7 +24552,7 @@
     </row>
     <row r="165" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B165" s="3">
         <v>3.3333333330000001</v>
@@ -24686,7 +24692,7 @@
     </row>
     <row r="166" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B166" s="3">
         <v>4</v>
@@ -24826,7 +24832,7 @@
     </row>
     <row r="167" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B167" s="3">
         <v>5</v>
@@ -24966,7 +24972,7 @@
     </row>
     <row r="168" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B168" s="3">
         <v>4.3333333329999997</v>
@@ -25106,7 +25112,7 @@
     </row>
     <row r="169" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B169" s="3">
         <v>5</v>
@@ -25246,7 +25252,7 @@
     </row>
     <row r="170" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B170" s="3">
         <v>4</v>
@@ -25386,7 +25392,7 @@
     </row>
     <row r="171" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B171" s="3">
         <v>4</v>
@@ -25526,7 +25532,7 @@
     </row>
     <row r="172" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B172" s="3">
         <v>3.6666666669999999</v>
@@ -25666,7 +25672,7 @@
     </row>
     <row r="173" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B173" s="3">
         <v>4</v>
@@ -25806,7 +25812,7 @@
     </row>
     <row r="174" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B174" s="3">
         <v>4</v>
@@ -25946,7 +25952,7 @@
     </row>
     <row r="175" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B175" s="3">
         <v>4.3333333329999997</v>
@@ -26086,7 +26092,7 @@
     </row>
     <row r="176" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B176" s="3">
         <v>4</v>
@@ -26226,7 +26232,7 @@
     </row>
     <row r="177" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B177" s="3">
         <v>4</v>
@@ -26366,7 +26372,7 @@
     </row>
     <row r="178" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B178" s="3">
         <v>4</v>
@@ -26506,7 +26512,7 @@
     </row>
     <row r="179" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B179" s="3">
         <v>4</v>
@@ -26646,7 +26652,7 @@
     </row>
     <row r="180" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B180" s="3">
         <v>4</v>
@@ -26786,7 +26792,7 @@
     </row>
     <row r="181" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B181" s="3">
         <v>5</v>
@@ -26926,7 +26932,7 @@
     </row>
     <row r="182" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B182" s="3">
         <v>5</v>
@@ -27066,7 +27072,7 @@
     </row>
     <row r="183" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B183" s="3">
         <v>4</v>
@@ -27206,7 +27212,7 @@
     </row>
     <row r="184" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B184" s="3">
         <v>4.6666666670000003</v>
@@ -27346,7 +27352,7 @@
     </row>
     <row r="185" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B185" s="3">
         <v>5</v>
@@ -27486,7 +27492,7 @@
     </row>
     <row r="186" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B186" s="3">
         <v>4.6666666670000003</v>
@@ -27626,7 +27632,7 @@
     </row>
     <row r="187" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B187" s="3">
         <v>3</v>
@@ -27766,7 +27772,7 @@
     </row>
     <row r="188" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B188" s="3">
         <v>3.6666666669999999</v>
@@ -27906,7 +27912,7 @@
     </row>
     <row r="189" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B189" s="3">
         <v>4</v>
@@ -28046,7 +28052,7 @@
     </row>
     <row r="190" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B190" s="3">
         <v>3.3333333330000001</v>
@@ -28186,7 +28192,7 @@
     </row>
     <row r="191" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B191" s="3">
         <v>4.6666666670000003</v>
@@ -28326,7 +28332,7 @@
     </row>
     <row r="192" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B192" s="3">
         <v>3.3333333330000001</v>
@@ -28466,7 +28472,7 @@
     </row>
     <row r="193" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B193" s="3">
         <v>3.6666666669999999</v>
@@ -28606,7 +28612,7 @@
     </row>
     <row r="194" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B194" s="3">
         <v>4.6666666670000003</v>
@@ -28746,7 +28752,7 @@
     </row>
     <row r="195" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B195" s="3">
         <v>5</v>
@@ -28886,7 +28892,7 @@
     </row>
     <row r="196" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B196" s="3">
         <v>4</v>
@@ -29026,7 +29032,7 @@
     </row>
     <row r="197" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B197" s="3">
         <v>4.3333333329999997</v>
@@ -29166,7 +29172,7 @@
     </row>
     <row r="198" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B198" s="3">
         <v>4.6666666670000003</v>
@@ -29306,7 +29312,7 @@
     </row>
     <row r="199" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B199" s="3">
         <v>3.6666666669999999</v>
@@ -29446,7 +29452,7 @@
     </row>
     <row r="200" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B200" s="3">
         <v>4.3333333329999997</v>
@@ -29586,7 +29592,7 @@
     </row>
     <row r="201" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B201" s="3">
         <v>5</v>
@@ -29726,7 +29732,7 @@
     </row>
     <row r="202" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B202" s="3">
         <v>4.6666666670000003</v>
@@ -29866,7 +29872,7 @@
     </row>
     <row r="203" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B203" s="3">
         <v>5</v>
@@ -30006,7 +30012,7 @@
     </row>
     <row r="204" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B204" s="3">
         <v>3.6666666669999999</v>
@@ -30146,7 +30152,7 @@
     </row>
     <row r="205" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B205" s="3">
         <v>3.6666666669999999</v>
@@ -30286,7 +30292,7 @@
     </row>
     <row r="206" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B206" s="3">
         <v>4.3333333329999997</v>
@@ -30426,7 +30432,7 @@
     </row>
     <row r="207" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B207" s="3">
         <v>4</v>
@@ -30566,7 +30572,7 @@
     </row>
     <row r="208" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B208" s="3">
         <v>4.3333333329999997</v>
@@ -30706,7 +30712,7 @@
     </row>
     <row r="209" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B209" s="3">
         <v>4.3333333329999997</v>
@@ -30846,7 +30852,7 @@
     </row>
     <row r="210" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B210" s="3">
         <v>5</v>
@@ -30986,7 +30992,7 @@
     </row>
     <row r="211" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B211" s="3">
         <v>4.3333333329999997</v>
@@ -31126,7 +31132,7 @@
     </row>
     <row r="212" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B212" s="3">
         <v>4.3333333329999997</v>
@@ -31266,7 +31272,7 @@
     </row>
     <row r="213" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B213" s="3">
         <v>4.6666666670000003</v>
@@ -31406,7 +31412,7 @@
     </row>
     <row r="214" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B214" s="3">
         <v>4</v>
@@ -31541,12 +31547,12 @@
         <v>54</v>
       </c>
       <c r="AT214" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="215" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B215" s="3">
         <v>4</v>
@@ -31686,7 +31692,7 @@
     </row>
     <row r="216" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B216" s="3">
         <v>3.6666666669999999</v>
@@ -31826,7 +31832,7 @@
     </row>
     <row r="217" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B217" s="3">
         <v>4</v>
@@ -31966,7 +31972,7 @@
     </row>
     <row r="218" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B218" s="3">
         <v>4</v>
@@ -32106,7 +32112,7 @@
     </row>
     <row r="219" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B219" s="3">
         <v>4.3333333329999997</v>
@@ -32246,7 +32252,7 @@
     </row>
     <row r="220" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B220" s="3">
         <v>5</v>
@@ -32386,7 +32392,7 @@
     </row>
     <row r="221" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B221" s="3">
         <v>5</v>
@@ -32526,7 +32532,7 @@
     </row>
     <row r="222" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B222" s="3">
         <v>3</v>
@@ -32666,7 +32672,7 @@
     </row>
     <row r="223" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B223" s="3">
         <v>2.6666666669999999</v>
@@ -32806,7 +32812,7 @@
     </row>
     <row r="224" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B224" s="3">
         <v>4.3333333329999997</v>
@@ -32946,7 +32952,7 @@
     </row>
     <row r="225" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B225" s="3">
         <v>5</v>
@@ -33086,7 +33092,7 @@
     </row>
     <row r="226" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B226" s="3">
         <v>3.6666666669999999</v>
@@ -33226,7 +33232,7 @@
     </row>
     <row r="227" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B227" s="3">
         <v>3.6666666669999999</v>
@@ -33366,7 +33372,7 @@
     </row>
     <row r="228" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B228" s="3">
         <v>5</v>
@@ -33506,7 +33512,7 @@
     </row>
     <row r="229" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B229" s="3">
         <v>3.6666666669999999</v>
@@ -33646,7 +33652,7 @@
     </row>
     <row r="230" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B230" s="3">
         <v>4.3333333329999997</v>
@@ -33786,7 +33792,7 @@
     </row>
     <row r="231" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B231" s="3">
         <v>3.3333333330000001</v>
@@ -33926,7 +33932,7 @@
     </row>
     <row r="232" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B232" s="3">
         <v>4.3333333329999997</v>
@@ -34066,7 +34072,7 @@
     </row>
     <row r="233" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B233" s="3">
         <v>5</v>
@@ -34206,7 +34212,7 @@
     </row>
     <row r="234" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B234" s="3">
         <v>3</v>
@@ -34346,7 +34352,7 @@
     </row>
     <row r="235" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B235" s="3">
         <v>3</v>
@@ -34486,7 +34492,7 @@
     </row>
     <row r="236" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B236" s="3">
         <v>3.6666666669999999</v>
@@ -34626,7 +34632,7 @@
     </row>
     <row r="237" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B237" s="3">
         <v>4</v>
@@ -34766,7 +34772,7 @@
     </row>
     <row r="238" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B238" s="3">
         <v>4</v>
@@ -34906,7 +34912,7 @@
     </row>
     <row r="239" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B239" s="3">
         <v>5</v>
@@ -35041,12 +35047,12 @@
         <v>49</v>
       </c>
       <c r="AT239" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="240" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B240" s="3">
         <v>4.6666666670000003</v>
@@ -35186,7 +35192,7 @@
     </row>
     <row r="241" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B241" s="3">
         <v>4</v>
@@ -35326,7 +35332,7 @@
     </row>
     <row r="242" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B242" s="3">
         <v>5</v>
@@ -35466,7 +35472,7 @@
     </row>
     <row r="243" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B243" s="3">
         <v>4</v>
@@ -35598,7 +35604,7 @@
         <v>49</v>
       </c>
       <c r="AS243" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT243" t="s">
         <v>49</v>
@@ -35606,7 +35612,7 @@
     </row>
     <row r="244" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B244" s="3">
         <v>4.3333333329999997</v>
@@ -35746,7 +35752,7 @@
     </row>
     <row r="245" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B245" s="3">
         <v>3.3333333330000001</v>
@@ -35886,7 +35892,7 @@
     </row>
     <row r="246" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B246" s="3">
         <v>4</v>
@@ -36026,7 +36032,7 @@
     </row>
     <row r="247" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B247" s="3">
         <v>3.6666666669999999</v>
@@ -36166,7 +36172,7 @@
     </row>
     <row r="248" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B248" s="3">
         <v>3.6666666669999999</v>
@@ -36306,7 +36312,7 @@
     </row>
     <row r="249" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B249" s="3">
         <v>4</v>
@@ -36446,7 +36452,7 @@
     </row>
     <row r="250" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B250" s="3">
         <v>5</v>
@@ -36586,7 +36592,7 @@
     </row>
     <row r="251" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B251" s="3">
         <v>4</v>
@@ -36726,7 +36732,7 @@
     </row>
     <row r="252" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B252" s="3">
         <v>4</v>
@@ -36866,7 +36872,7 @@
     </row>
     <row r="253" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B253" s="3">
         <v>4</v>
@@ -37006,7 +37012,7 @@
     </row>
     <row r="254" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B254" s="3">
         <v>5</v>
@@ -37146,7 +37152,7 @@
     </row>
     <row r="255" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B255" s="3">
         <v>4</v>
@@ -37286,7 +37292,7 @@
     </row>
     <row r="256" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B256" s="3">
         <v>4.6666666670000003</v>
@@ -37426,7 +37432,7 @@
     </row>
     <row r="257" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B257" s="3">
         <v>3.3333333330000001</v>
@@ -37566,7 +37572,7 @@
     </row>
     <row r="258" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B258" s="3">
         <v>4</v>
@@ -37706,7 +37712,7 @@
     </row>
     <row r="259" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B259" s="3">
         <v>5</v>
@@ -37846,7 +37852,7 @@
     </row>
     <row r="260" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B260" s="3">
         <v>4.3333333329999997</v>
@@ -37986,7 +37992,7 @@
     </row>
     <row r="261" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B261" s="3">
         <v>3</v>
@@ -38126,7 +38132,7 @@
     </row>
     <row r="262" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B262" s="3">
         <v>4</v>
@@ -38266,7 +38272,7 @@
     </row>
     <row r="263" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B263" s="3">
         <v>4</v>
@@ -38406,7 +38412,7 @@
     </row>
     <row r="264" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B264" s="3">
         <v>5</v>
@@ -38546,7 +38552,7 @@
     </row>
     <row r="265" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B265" s="3">
         <v>4.3333333329999997</v>
@@ -38686,7 +38692,7 @@
     </row>
     <row r="266" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B266" s="3">
         <v>3</v>
@@ -38826,7 +38832,7 @@
     </row>
     <row r="267" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B267" s="3">
         <v>5</v>
@@ -38966,7 +38972,7 @@
     </row>
     <row r="268" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B268" s="3">
         <v>5</v>
@@ -39106,7 +39112,7 @@
     </row>
     <row r="269" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B269" s="3">
         <v>4.6666666670000003</v>
@@ -39246,7 +39252,7 @@
     </row>
     <row r="270" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B270" s="3">
         <v>3</v>
@@ -39386,7 +39392,7 @@
     </row>
     <row r="271" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B271" s="3">
         <v>4.6666666670000003</v>
@@ -39526,7 +39532,7 @@
     </row>
     <row r="272" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B272" s="3">
         <v>4</v>
@@ -39666,7 +39672,7 @@
     </row>
     <row r="273" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B273" s="3">
         <v>3.3333333330000001</v>
@@ -39806,7 +39812,7 @@
     </row>
     <row r="274" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B274" s="3">
         <v>4.6666666670000003</v>
@@ -39946,7 +39952,7 @@
     </row>
     <row r="275" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B275" s="3">
         <v>4</v>
@@ -40086,7 +40092,7 @@
     </row>
     <row r="276" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B276" s="3">
         <v>5</v>
@@ -40226,7 +40232,7 @@
     </row>
     <row r="277" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B277" s="3">
         <v>3.6666666669999999</v>
@@ -40366,7 +40372,7 @@
     </row>
     <row r="278" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B278" s="3">
         <v>4.3333333329999997</v>
@@ -40506,7 +40512,7 @@
     </row>
     <row r="279" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B279" s="3">
         <v>4</v>
@@ -40646,7 +40652,7 @@
     </row>
     <row r="280" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B280" s="3">
         <v>3.6666666669999999</v>
@@ -40786,7 +40792,7 @@
     </row>
     <row r="281" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B281" s="3">
         <v>5</v>
@@ -40926,7 +40932,7 @@
     </row>
     <row r="282" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B282" s="3">
         <v>2.6666666669999999</v>
@@ -41066,7 +41072,7 @@
     </row>
     <row r="283" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B283" s="3">
         <v>3</v>
@@ -41206,7 +41212,7 @@
     </row>
     <row r="284" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B284" s="3">
         <v>4</v>
@@ -41346,7 +41352,7 @@
     </row>
     <row r="285" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B285" s="3">
         <v>4</v>
@@ -41486,7 +41492,7 @@
     </row>
     <row r="286" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B286" s="3">
         <v>5</v>
@@ -41626,7 +41632,7 @@
     </row>
     <row r="287" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B287" s="3">
         <v>4.6666666670000003</v>
@@ -41766,7 +41772,7 @@
     </row>
     <row r="288" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B288" s="3">
         <v>5</v>
@@ -41906,7 +41912,7 @@
     </row>
     <row r="289" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B289" s="3">
         <v>4.6666666670000003</v>
@@ -42046,7 +42052,7 @@
     </row>
     <row r="290" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B290" s="3">
         <v>4.6666666670000003</v>
@@ -42186,7 +42192,7 @@
     </row>
     <row r="291" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B291" s="3">
         <v>3.6666666669999999</v>
@@ -42326,7 +42332,7 @@
     </row>
     <row r="292" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B292" s="3">
         <v>4</v>
@@ -42466,7 +42472,7 @@
     </row>
     <row r="293" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B293" s="3">
         <v>4</v>
@@ -42606,7 +42612,7 @@
     </row>
     <row r="294" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A294" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B294" s="3">
         <v>3.3333333330000001</v>
@@ -42746,7 +42752,7 @@
     </row>
     <row r="295" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B295" s="3">
         <v>4.3333333329999997</v>
@@ -42886,7 +42892,7 @@
     </row>
     <row r="296" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B296" s="3">
         <v>4</v>
@@ -43026,7 +43032,7 @@
     </row>
     <row r="297" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B297" s="3">
         <v>5</v>
@@ -43166,7 +43172,7 @@
     </row>
     <row r="298" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B298" s="3">
         <v>3.6666666669999999</v>
@@ -43306,7 +43312,7 @@
     </row>
     <row r="299" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B299" s="3">
         <v>4.3333333329999997</v>
@@ -43446,7 +43452,7 @@
     </row>
     <row r="300" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B300" s="3">
         <v>4.3333333329999997</v>
@@ -43586,7 +43592,7 @@
     </row>
     <row r="301" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B301" s="3">
         <v>3.3333333330000001</v>
@@ -43726,7 +43732,7 @@
     </row>
     <row r="302" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B302" s="3">
         <v>3.6666666669999999</v>
@@ -43866,7 +43872,7 @@
     </row>
     <row r="303" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B303" s="3">
         <v>3.3333333330000001</v>
@@ -44006,7 +44012,7 @@
     </row>
     <row r="304" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B304" s="3">
         <v>4.3333333329999997</v>
@@ -44146,7 +44152,7 @@
     </row>
     <row r="305" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B305" s="3">
         <v>3.6666666669999999</v>
@@ -44286,7 +44292,7 @@
     </row>
     <row r="306" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B306" s="3">
         <v>3.6666666669999999</v>
@@ -44426,7 +44432,7 @@
     </row>
     <row r="307" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B307" s="3">
         <v>4.6666666670000003</v>
@@ -44566,7 +44572,7 @@
     </row>
     <row r="308" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A308" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B308" s="3">
         <v>3.3333333330000001</v>
@@ -44706,7 +44712,7 @@
     </row>
     <row r="309" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A309" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B309" s="3">
         <v>4</v>
@@ -44845,8 +44851,8 @@
       </c>
     </row>
     <row r="310" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A310" t="s">
-        <v>378</v>
+      <c r="A310" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="B310" s="3">
         <v>3.6666666669999999</v>
@@ -44985,8 +44991,8 @@
       </c>
     </row>
     <row r="311" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A311" t="s">
-        <v>379</v>
+      <c r="A311" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="B311" s="3">
         <v>4</v>
@@ -45121,12 +45127,12 @@
         <v>50</v>
       </c>
       <c r="AT311" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="312" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A312" t="s">
-        <v>380</v>
+      <c r="A312" s="4" t="s">
+        <v>381</v>
       </c>
       <c r="B312" s="3">
         <v>4.6666666670000003</v>
@@ -45265,8 +45271,8 @@
       </c>
     </row>
     <row r="313" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A313" t="s">
-        <v>381</v>
+      <c r="A313" s="4" t="s">
+        <v>382</v>
       </c>
       <c r="B313" s="3">
         <v>4</v>
@@ -45398,15 +45404,15 @@
         <v>50</v>
       </c>
       <c r="AS313" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT313" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="314" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A314" t="s">
-        <v>382</v>
+      <c r="A314" s="4" t="s">
+        <v>383</v>
       </c>
       <c r="B314" s="3">
         <v>4</v>
@@ -45545,8 +45551,8 @@
       </c>
     </row>
     <row r="315" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A315" t="s">
-        <v>383</v>
+      <c r="A315" s="4" t="s">
+        <v>384</v>
       </c>
       <c r="B315" s="3">
         <v>4</v>
@@ -45685,8 +45691,8 @@
       </c>
     </row>
     <row r="316" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A316" t="s">
-        <v>384</v>
+      <c r="A316" s="4" t="s">
+        <v>385</v>
       </c>
       <c r="B316" s="3">
         <v>4.6666666670000003</v>
@@ -45825,8 +45831,8 @@
       </c>
     </row>
     <row r="317" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A317" t="s">
-        <v>385</v>
+      <c r="A317" s="4" t="s">
+        <v>386</v>
       </c>
       <c r="B317" s="3">
         <v>4.3333333329999997</v>
@@ -45965,8 +45971,8 @@
       </c>
     </row>
     <row r="318" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A318" t="s">
-        <v>386</v>
+      <c r="A318" s="4" t="s">
+        <v>387</v>
       </c>
       <c r="B318" s="3">
         <v>4</v>
@@ -46105,8 +46111,8 @@
       </c>
     </row>
     <row r="319" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A319" t="s">
-        <v>387</v>
+      <c r="A319" s="4" t="s">
+        <v>388</v>
       </c>
       <c r="B319" s="1" t="e">
         <v>#NULL!</v>
@@ -46247,5 +46253,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>